--- a/数据整理/stocks/A股/深证主板/002101-广东鸿图.xlsx
+++ b/数据整理/stocks/A股/深证主板/002101-广东鸿图.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,17 +557,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -576,13 +597,635 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>501201</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2613</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>660005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>农银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>68.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1520</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008422</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中融研发创新混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>32.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0817</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>168401</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>红土创新转型精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004671</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中融核心成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010008</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中融成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001339</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴银鼎新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519677</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银河定投宝中证腾讯济安价值100A股指数</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>210002</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>69.18</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008423</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中融研发创新混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>32.66</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010009</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中融成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005569</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中融智选红利股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002810</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>金信转型创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.12</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004456</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴银消费新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.19</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005570</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中融智选红利股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.03</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002101-广东鸿图.xlsx
+++ b/数据整理/stocks/A股/深证主板/002101-广东鸿图.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1172,7 +1173,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1183,17 +1184,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1203,14 +1224,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.8100000000000001</v>
+          <t>288001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏经典配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>67.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5968</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1219,13 +1262,839 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>007346</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2233</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009205</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>37.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1295</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011269</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0922</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009206</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>37.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002810</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>金信转型创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0786</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519677</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银河定投宝中证腾讯济安价值100A股指数</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0782</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012924</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏新时代灵活配置混合（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.91</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012925</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏新时代灵活配置混合（QDII）美元现钞</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.91</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008422</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中融研发创新混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004671</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中融核心成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010008</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中融成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011270</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>96.07</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011765</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006072</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>民生加银创新成长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008423</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中融研发创新混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010009</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中融成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>350002</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>天治低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011766</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005146</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>兴银丰润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014929</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>民生加银创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.03</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002101-广东鸿图.xlsx
+++ b/数据整理/stocks/A股/深证主板/002101-广东鸿图.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,37 +464,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -504,36 +484,46 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519677</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>银河定投宝中证腾讯济安价值100A股指数</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.05</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0326</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.03</v>
       </c>
     </row>
   </sheetData>
@@ -542,6 +532,858 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>288001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏经典配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>67.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5968</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007346</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2233</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009205</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>37.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1295</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011269</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0922</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009206</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>37.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002810</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>金信转型创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0786</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519677</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银河定投宝中证腾讯济安价值100A股指数</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0782</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012924</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏新时代灵活配置混合（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.91</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012925</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏新时代灵活配置混合（QDII）美元现钞</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.91</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008422</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中融研发创新混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004671</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中融核心成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010008</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中融成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011270</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>96.07</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011765</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006072</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>民生加银创新成长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008423</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中融研发创新混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010009</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中融成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>350002</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>天治低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011766</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005146</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>兴银丰润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014929</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>民生加银创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1167,13 +2009,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1224,878 +2066,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>288001</t>
+          <t>519677</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏经典配置混合</t>
+          <t>银河定投宝中证腾讯济安价值100A股指数</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>19.44</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>67.19</t>
+          <t>92.05</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5968</t>
+          <t>0.0326</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>007346</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>易方达科技创新混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>8.27</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>88.83</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2233</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009205</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>兴银丰运稳益回报混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>6.35</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>37.15</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1295</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>011269</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中银证券优势制造股票型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>96.07</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.91</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0922</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
         <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009206</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>兴银丰运稳益回报混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>37.15</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0789</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>002810</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>金信转型创新成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>88.86</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0786</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>519677</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>银河定投宝中证腾讯济安价值100A股指数</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.09</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0782</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>012924</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华夏新时代灵活配置混合（QDII）美元现汇</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>80.91</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0517</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>012925</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华夏新时代灵活配置混合（QDII）美元现钞</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>80.91</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0517</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>008422</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中融研发创新混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>82.80</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0482</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>004671</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>中融核心成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>90.79</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0454</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>010008</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>中融成长优选混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>90.96</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0277</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>011270</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>中银证券优势制造股票型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>96.07</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5.91</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0242</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>011765</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>兴银高端制造混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>94.04</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0176</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>006072</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>民生加银创新成长混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>92.78</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0167</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>008423</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>中融研发创新混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>82.80</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0165</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>010009</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>中融成长优选混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>90.96</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0162</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>350002</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>天治低碳经济灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>91.87</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0126</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>011766</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>兴银高端制造混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>94.04</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0106</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>005146</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>兴银丰润灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>94.15</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0017</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>014929</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>民生加银创新成长混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>92.78</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>21</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.62</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.03</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002101-广东鸿图.xlsx
+++ b/数据整理/stocks/A股/深证主板/002101-广东鸿图.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>1.62</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -532,6 +549,442 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001403</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商国企改革主题混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1261</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>217001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商安泰混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1028</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000030</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长城核心优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0831</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519677</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河定投宝腾讯济安指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0714</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004641</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家量化睿选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009206</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>38.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002271</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商安弘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>53.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009205</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>38.30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>016556</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家量化睿选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005146</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴银丰润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1383,7 +1836,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2009,7 +2462,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002101-广东鸿图.xlsx
+++ b/数据整理/stocks/A股/深证主板/002101-广东鸿图.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>1.62</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -549,6 +566,556 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>110010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达价值成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2991</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009206</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>39.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010683</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中融景颐6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>22.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009205</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>39.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014839</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴银碳中和主题混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014838</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴银碳中和主题混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013774</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达趋势优选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011765</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010367</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中融景瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>21.49</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011766</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010684</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中融景颐6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>22.07</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013775</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达趋势优选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010368</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中融景瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>21.49</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -984,7 +1551,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1836,7 +2403,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2462,7 +3029,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
